--- a/data/full_stack_app.xlsx
+++ b/data/full_stack_app.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Sample-Projects\fullstack-app-api\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\NodeProjects\Brandsonmove-API\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6264BCB-3582-4942-83A0-853A8DCBC530}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{827F25B4-5E78-405A-9510-4BE3FEC77E65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1332" yWindow="3144" windowWidth="17280" windowHeight="8964" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="userRole" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="21">
   <si>
     <t>name</t>
   </si>
@@ -78,6 +78,12 @@
   </si>
   <si>
     <t>sagar@gmail.com</t>
+  </si>
+  <si>
+    <t>admin@123</t>
+  </si>
+  <si>
+    <t>user@123</t>
   </si>
 </sst>
 </file>
@@ -470,7 +476,7 @@
   <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -508,11 +514,11 @@
       <c r="B2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" t="s">
         <v>15</v>
       </c>
-      <c r="D2" t="s">
-        <v>8</v>
+      <c r="D2" s="2" t="s">
+        <v>19</v>
       </c>
       <c r="E2" t="s">
         <v>4</v>
@@ -528,11 +534,11 @@
       <c r="B3" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" t="s">
         <v>18</v>
       </c>
-      <c r="D3" t="s">
-        <v>8</v>
+      <c r="D3" s="2" t="s">
+        <v>20</v>
       </c>
       <c r="E3" t="s">
         <v>11</v>

--- a/data/full_stack_app.xlsx
+++ b/data/full_stack_app.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\NodeProjects\Brandsonmove-API\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{827F25B4-5E78-405A-9510-4BE3FEC77E65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC8D14B9-5853-4C06-936E-7245AE457AB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1332" yWindow="3144" windowWidth="17280" windowHeight="8964" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="userRole" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="18">
   <si>
     <t>name</t>
   </si>
@@ -41,12 +41,6 @@
     <t>ACTIVE</t>
   </si>
   <si>
-    <t>first_name</t>
-  </si>
-  <si>
-    <t>last_name</t>
-  </si>
-  <si>
     <t>password</t>
   </si>
   <si>
@@ -62,9 +56,6 @@
     <t>email</t>
   </si>
   <si>
-    <t>Eggadi</t>
-  </si>
-  <si>
     <t>Gajendra</t>
   </si>
   <si>
@@ -74,9 +65,6 @@
     <t>Sagar</t>
   </si>
   <si>
-    <t>Chandra</t>
-  </si>
-  <si>
     <t>sagar@gmail.com</t>
   </si>
   <si>
@@ -84,6 +72,9 @@
   </si>
   <si>
     <t>user@123</t>
+  </si>
+  <si>
+    <t>phone_number</t>
   </si>
 </sst>
 </file>
@@ -136,14 +127,11 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -457,10 +445,10 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C3" t="s">
         <v>5</v>
@@ -476,7 +464,7 @@
   <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -489,19 +477,19 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" t="s">
         <v>6</v>
       </c>
-      <c r="B1" t="s">
+      <c r="E1" t="s">
         <v>7</v>
-      </c>
-      <c r="C1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E1" t="s">
-        <v>9</v>
       </c>
       <c r="F1" t="s">
         <v>2</v>
@@ -509,16 +497,16 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
+      </c>
+      <c r="B2" s="1">
+        <v>7981581944</v>
       </c>
       <c r="C2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" t="s">
         <v>15</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>19</v>
       </c>
       <c r="E2" t="s">
         <v>4</v>
@@ -529,19 +517,19 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="1">
+        <v>7981581943</v>
+      </c>
+      <c r="C3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>20</v>
-      </c>
       <c r="E3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F3" t="s">
         <v>5</v>
